--- a/mylib/sort_test.xlsx
+++ b/mylib/sort_test.xlsx
@@ -27,12 +27,22 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ACEBF0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF66"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -47,8 +57,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -414,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,13 +493,26 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Banana</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B6" t="n">
         <v>1.5</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
     </row>
@@ -502,7 +527,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,7 +536,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Item</t>
         </is>
@@ -521,62 +546,95 @@
           <t>Price</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Quantity</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>index</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Date</t>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Apple</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Apple</t>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Banana</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>0.5</v>
       </c>
-      <c r="C3" t="n">
-        <v>10</v>
+      <c r="C3" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Banana</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>Cherry</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" s="2" t="n">
         <v>15</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Banana</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C5" t="n">
-        <v>20</v>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
